--- a/Robot Procesamiento TERPEL/Config/ZMM023/ZMM023TERPEL.xlsx
+++ b/Robot Procesamiento TERPEL/Config/ZMM023/ZMM023TERPEL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpaeyuser\Documents\UiPath\Robot Procesamiento TERPEL\Config\ZMM023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8088"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="132">
   <si>
     <t>Fecha Ticket</t>
   </si>
@@ -367,6 +367,60 @@
   <si>
     <t>18-UE252</t>
   </si>
+  <si>
+    <t>Razon Social 2</t>
+  </si>
+  <si>
+    <t>244595</t>
+  </si>
+  <si>
+    <t>244593</t>
+  </si>
+  <si>
+    <t>244306</t>
+  </si>
+  <si>
+    <t>244304</t>
+  </si>
+  <si>
+    <t>244297</t>
+  </si>
+  <si>
+    <t>244296</t>
+  </si>
+  <si>
+    <t>244295</t>
+  </si>
+  <si>
+    <t>244294</t>
+  </si>
+  <si>
+    <t>244293</t>
+  </si>
+  <si>
+    <t>244129</t>
+  </si>
+  <si>
+    <t>244128</t>
+  </si>
+  <si>
+    <t>244123</t>
+  </si>
+  <si>
+    <t>244057</t>
+  </si>
+  <si>
+    <t>244056</t>
+  </si>
+  <si>
+    <t>243919</t>
+  </si>
+  <si>
+    <t>243918</t>
+  </si>
+  <si>
+    <t>243917</t>
+  </si>
 </sst>
 </file>
 
@@ -433,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -468,6 +522,7 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,12 +806,12 @@
   <dimension ref="A1:BC145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BC145"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:55" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,10 +975,10 @@
         <v>53</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>44652</v>
       </c>
@@ -945,8 +1000,8 @@
       <c r="G2" s="4">
         <v>10086102</v>
       </c>
-      <c r="H2" s="4">
-        <v>240221</v>
+      <c r="H2" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>57</v>
@@ -1080,7 +1135,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44652</v>
       </c>
@@ -1102,8 +1157,8 @@
       <c r="G3" s="4">
         <v>10086107</v>
       </c>
-      <c r="H3" s="4">
-        <v>240067</v>
+      <c r="H3" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>73</v>
@@ -1237,7 +1292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44652</v>
       </c>
@@ -1259,8 +1314,8 @@
       <c r="G4" s="4">
         <v>10086105</v>
       </c>
-      <c r="H4" s="4">
-        <v>240223</v>
+      <c r="H4" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>75</v>
@@ -1394,7 +1449,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44652</v>
       </c>
@@ -1416,8 +1471,8 @@
       <c r="G5" s="4">
         <v>10086087</v>
       </c>
-      <c r="H5" s="4">
-        <v>240139</v>
+      <c r="H5" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>78</v>
@@ -1551,7 +1606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44652</v>
       </c>
@@ -1573,8 +1628,8 @@
       <c r="G6" s="4">
         <v>10086097</v>
       </c>
-      <c r="H6" s="4">
-        <v>240222</v>
+      <c r="H6" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>81</v>
@@ -1708,7 +1763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44652</v>
       </c>
@@ -1730,8 +1785,8 @@
       <c r="G7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="4">
-        <v>240138</v>
+      <c r="H7" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>84</v>
@@ -1865,7 +1920,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44652</v>
       </c>
@@ -1887,8 +1942,8 @@
       <c r="G8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="4">
-        <v>240137</v>
+      <c r="H8" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>88</v>
@@ -2022,7 +2077,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44652</v>
       </c>
@@ -2044,8 +2099,8 @@
       <c r="G9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="4">
-        <v>240136</v>
+      <c r="H9" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>91</v>
@@ -2179,7 +2234,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44652</v>
       </c>
@@ -2201,8 +2256,8 @@
       <c r="G10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="4">
-        <v>239973</v>
+      <c r="H10" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>93</v>
@@ -2336,7 +2391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44652</v>
       </c>
@@ -2493,7 +2548,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44652</v>
       </c>
@@ -2650,7 +2705,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44652</v>
       </c>
@@ -2807,7 +2862,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44652</v>
       </c>
@@ -2964,7 +3019,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>44652</v>
       </c>
@@ -3031,7 +3086,7 @@
       <c r="BB15" s="9"/>
       <c r="BC15" s="9"/>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44653</v>
       </c>
@@ -3188,7 +3243,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>44653</v>
       </c>
@@ -3345,7 +3400,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44653</v>
       </c>
@@ -3502,7 +3557,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>44653</v>
       </c>
@@ -3659,7 +3714,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>44653</v>
       </c>
@@ -3816,7 +3871,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44653</v>
       </c>
@@ -3973,7 +4028,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>44653</v>
       </c>
@@ -4130,7 +4185,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>44653</v>
       </c>
@@ -4287,7 +4342,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>44653</v>
       </c>
@@ -4354,7 +4409,7 @@
       <c r="BB24" s="9"/>
       <c r="BC24" s="9"/>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44654</v>
       </c>
@@ -4511,7 +4566,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>44654</v>
       </c>
@@ -4668,7 +4723,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>44654</v>
       </c>
@@ -4825,7 +4880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>44654</v>
       </c>
@@ -4982,7 +5037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44654</v>
       </c>
@@ -5139,7 +5194,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>44654</v>
       </c>
@@ -5206,7 +5261,7 @@
       <c r="BB30" s="9"/>
       <c r="BC30" s="9"/>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>44655</v>
       </c>
@@ -5363,7 +5418,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>44655</v>
       </c>
@@ -5520,7 +5575,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44655</v>
       </c>
@@ -5677,7 +5732,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44655</v>
       </c>
@@ -5834,7 +5889,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>44655</v>
       </c>
@@ -5991,7 +6046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>44655</v>
       </c>
@@ -6148,7 +6203,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>44655</v>
       </c>
@@ -6305,7 +6360,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44655</v>
       </c>
@@ -6462,7 +6517,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>44655</v>
       </c>
@@ -6619,7 +6674,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>44655</v>
       </c>
@@ -6686,7 +6741,7 @@
       <c r="BB40" s="9"/>
       <c r="BC40" s="9"/>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44656</v>
       </c>
@@ -6843,7 +6898,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>44656</v>
       </c>
@@ -7000,7 +7055,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>44656</v>
       </c>
@@ -7157,7 +7212,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44656</v>
       </c>
@@ -7314,7 +7369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44656</v>
       </c>
@@ -7471,7 +7526,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44656</v>
       </c>
@@ -7628,7 +7683,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>44656</v>
       </c>
@@ -7695,7 +7750,7 @@
       <c r="BB47" s="9"/>
       <c r="BC47" s="9"/>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>44657</v>
       </c>
@@ -7717,8 +7772,8 @@
       <c r="G48" s="4">
         <v>10086434</v>
       </c>
-      <c r="H48" s="4">
-        <v>240597</v>
+      <c r="H48" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>105</v>
@@ -7852,7 +7907,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>44657</v>
       </c>
@@ -7874,8 +7929,8 @@
       <c r="G49" s="4">
         <v>10086488</v>
       </c>
-      <c r="H49" s="4">
-        <v>240401</v>
+      <c r="H49" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>93</v>
@@ -8009,7 +8064,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>44657</v>
       </c>
@@ -8031,8 +8086,8 @@
       <c r="G50" s="4">
         <v>10086493</v>
       </c>
-      <c r="H50" s="4">
-        <v>240715</v>
+      <c r="H50" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>104</v>
@@ -8166,7 +8221,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>44657</v>
       </c>
@@ -8188,8 +8243,8 @@
       <c r="G51" s="4">
         <v>10086491</v>
       </c>
-      <c r="H51" s="4">
-        <v>240598</v>
+      <c r="H51" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>84</v>
@@ -8323,7 +8378,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>44657</v>
       </c>
@@ -8345,8 +8400,8 @@
       <c r="G52" s="4">
         <v>10086505</v>
       </c>
-      <c r="H52" s="4">
-        <v>240953</v>
+      <c r="H52" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>99</v>
@@ -8480,7 +8535,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>44657</v>
       </c>
@@ -8502,8 +8557,8 @@
       <c r="G53" s="4">
         <v>10086504</v>
       </c>
-      <c r="H53" s="4">
-        <v>240952</v>
+      <c r="H53" s="12" t="s">
+        <v>129</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>88</v>
@@ -8637,7 +8692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>44657</v>
       </c>
@@ -8659,8 +8714,8 @@
       <c r="G54" s="4">
         <v>10086516</v>
       </c>
-      <c r="H54" s="4">
-        <v>240954</v>
+      <c r="H54" s="12" t="s">
+        <v>130</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>101</v>
@@ -8794,7 +8849,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>44657</v>
       </c>
@@ -8816,8 +8871,8 @@
       <c r="G55" s="4">
         <v>10086521</v>
       </c>
-      <c r="H55" s="4">
-        <v>240950</v>
+      <c r="H55" s="12" t="s">
+        <v>131</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>91</v>
@@ -8951,7 +9006,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>44657</v>
       </c>
@@ -9018,7 +9073,7 @@
       <c r="BB56" s="9"/>
       <c r="BC56" s="9"/>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>44658</v>
       </c>
@@ -9175,7 +9230,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>44658</v>
       </c>
@@ -9332,7 +9387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>44658</v>
       </c>
@@ -9489,7 +9544,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>44658</v>
       </c>
@@ -9646,7 +9701,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>44658</v>
       </c>
@@ -9713,7 +9768,7 @@
       <c r="BB61" s="9"/>
       <c r="BC61" s="9"/>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>44659</v>
       </c>
@@ -9870,7 +9925,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>44659</v>
       </c>
@@ -10027,7 +10082,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>44659</v>
       </c>
@@ -10184,7 +10239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>44659</v>
       </c>
@@ -10341,7 +10396,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>44659</v>
       </c>
@@ -10498,7 +10553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>44659</v>
       </c>
@@ -10655,7 +10710,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>44659</v>
       </c>
@@ -10812,7 +10867,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>44659</v>
       </c>
@@ -10969,7 +11024,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>44659</v>
       </c>
@@ -11126,7 +11181,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>44659</v>
       </c>
@@ -11193,7 +11248,7 @@
       <c r="BB71" s="9"/>
       <c r="BC71" s="9"/>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>44660</v>
       </c>
@@ -11350,7 +11405,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>44660</v>
       </c>
@@ -11507,7 +11562,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>44660</v>
       </c>
@@ -11664,7 +11719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>44660</v>
       </c>
@@ -11821,7 +11876,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>44660</v>
       </c>
@@ -11978,7 +12033,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>44660</v>
       </c>
@@ -12045,7 +12100,7 @@
       <c r="BB77" s="9"/>
       <c r="BC77" s="9"/>
     </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>44661</v>
       </c>
@@ -12202,7 +12257,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>44661</v>
       </c>
@@ -12359,7 +12414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>44661</v>
       </c>
@@ -12516,7 +12571,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>44661</v>
       </c>
@@ -12673,7 +12728,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>44661</v>
       </c>
@@ -12830,7 +12885,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>44661</v>
       </c>
@@ -12987,7 +13042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>44661</v>
       </c>
@@ -13144,7 +13199,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>44661</v>
       </c>
@@ -13301,7 +13356,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>44661</v>
       </c>
@@ -13368,7 +13423,7 @@
       <c r="BB86" s="9"/>
       <c r="BC86" s="9"/>
     </row>
-    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>44662</v>
       </c>
@@ -13525,7 +13580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>44662</v>
       </c>
@@ -13682,7 +13737,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>44662</v>
       </c>
@@ -13839,7 +13894,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>44662</v>
       </c>
@@ -13996,7 +14051,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>44662</v>
       </c>
@@ -14153,7 +14208,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>44662</v>
       </c>
@@ -14310,7 +14365,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>44662</v>
       </c>
@@ -14377,7 +14432,7 @@
       <c r="BB93" s="9"/>
       <c r="BC93" s="9"/>
     </row>
-    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>44663</v>
       </c>
@@ -14534,7 +14589,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>44663</v>
       </c>
@@ -14691,7 +14746,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>44663</v>
       </c>
@@ -14848,7 +14903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>44663</v>
       </c>
@@ -15005,7 +15060,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="98" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>44663</v>
       </c>
@@ -15162,7 +15217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>44663</v>
       </c>
@@ -15319,7 +15374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>44663</v>
       </c>
@@ -15476,7 +15531,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="101" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>44663</v>
       </c>
@@ -15633,7 +15688,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="102" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>44663</v>
       </c>
@@ -15790,7 +15845,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>44663</v>
       </c>
@@ -15857,7 +15912,7 @@
       <c r="BB103" s="9"/>
       <c r="BC103" s="9"/>
     </row>
-    <row r="104" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>44664</v>
       </c>
@@ -16014,7 +16069,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>44664</v>
       </c>
@@ -16171,7 +16226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>44664</v>
       </c>
@@ -16328,7 +16383,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>44664</v>
       </c>
@@ -16485,7 +16540,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="108" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>44664</v>
       </c>
@@ -16642,7 +16697,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>44664</v>
       </c>
@@ -16709,7 +16764,7 @@
       <c r="BB109" s="9"/>
       <c r="BC109" s="9"/>
     </row>
-    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>44665</v>
       </c>
@@ -16866,7 +16921,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>44665</v>
       </c>
@@ -17023,7 +17078,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="112" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>44665</v>
       </c>
@@ -17180,7 +17235,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>44665</v>
       </c>
@@ -17337,7 +17392,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>44665</v>
       </c>
@@ -17494,7 +17549,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>44665</v>
       </c>
@@ -17651,7 +17706,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="116" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>44665</v>
       </c>
@@ -17808,7 +17863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="117" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>44665</v>
       </c>
@@ -17965,7 +18020,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>44665</v>
       </c>
@@ -18122,7 +18177,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
         <v>44665</v>
       </c>
@@ -18189,7 +18244,7 @@
       <c r="BB119" s="9"/>
       <c r="BC119" s="9"/>
     </row>
-    <row r="120" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>44666</v>
       </c>
@@ -18346,7 +18401,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="121" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>44666</v>
       </c>
@@ -18503,7 +18558,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>44666</v>
       </c>
@@ -18660,7 +18715,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>44666</v>
       </c>
@@ -18817,7 +18872,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="124" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
         <v>44666</v>
       </c>
@@ -18884,7 +18939,7 @@
       <c r="BB124" s="9"/>
       <c r="BC124" s="9"/>
     </row>
-    <row r="125" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>44667</v>
       </c>
@@ -19041,7 +19096,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="126" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>44667</v>
       </c>
@@ -19198,7 +19253,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>44667</v>
       </c>
@@ -19355,7 +19410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="128" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>44667</v>
       </c>
@@ -19512,7 +19567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>44667</v>
       </c>
@@ -19669,7 +19724,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
         <v>44667</v>
       </c>
@@ -19736,7 +19791,7 @@
       <c r="BB130" s="9"/>
       <c r="BC130" s="9"/>
     </row>
-    <row r="131" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>44668</v>
       </c>
@@ -19893,7 +19948,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>44668</v>
       </c>
@@ -20050,7 +20105,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="133" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>44668</v>
       </c>
@@ -20207,7 +20262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>44668</v>
       </c>
@@ -20364,7 +20419,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>44668</v>
       </c>
@@ -20521,7 +20576,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="136" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>44668</v>
       </c>
@@ -20678,7 +20733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="137" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>44668</v>
       </c>
@@ -20835,7 +20890,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>44668</v>
       </c>
@@ -20992,7 +21047,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="139" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
         <v>44668</v>
       </c>
@@ -21059,7 +21114,7 @@
       <c r="BB139" s="9"/>
       <c r="BC139" s="9"/>
     </row>
-    <row r="140" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>44669</v>
       </c>
@@ -21216,7 +21271,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>44669</v>
       </c>
@@ -21373,7 +21428,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="142" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>44669</v>
       </c>
@@ -21530,7 +21585,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>44669</v>
       </c>
@@ -21687,7 +21742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>44669</v>
       </c>
@@ -21844,7 +21899,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="145" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
         <v>44669</v>
       </c>

--- a/Robot Procesamiento TERPEL/Config/ZMM023/ZMM023TERPEL.xlsx
+++ b/Robot Procesamiento TERPEL/Config/ZMM023/ZMM023TERPEL.xlsx
@@ -440,7 +440,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +457,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -487,7 +493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -523,6 +529,7 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1000,7 +1007,7 @@
       <c r="G2" s="4">
         <v>10086102</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -1157,7 +1164,7 @@
       <c r="G3" s="4">
         <v>10086107</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="13" t="s">
         <v>116</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -1314,7 +1321,7 @@
       <c r="G4" s="4">
         <v>10086105</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>117</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -1471,7 +1478,7 @@
       <c r="G5" s="4">
         <v>10086087</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>118</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -1628,7 +1635,7 @@
       <c r="G6" s="4">
         <v>10086097</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>119</v>
       </c>
       <c r="I6" s="4" t="s">
@@ -1785,7 +1792,7 @@
       <c r="G7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>120</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -1942,7 +1949,7 @@
       <c r="G8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>121</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -2099,7 +2106,7 @@
       <c r="G9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>122</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -2256,7 +2263,7 @@
       <c r="G10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="13" t="s">
         <v>123</v>
       </c>
       <c r="I10" s="4" t="s">
